--- a/trend_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
+++ b/trend_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.258001467721793</v>
+        <v>0.741998532278207</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.593087877338751</v>
+        <v>0.406912122661249</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.671478325946215</v>
+        <v>0.328521674053785</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.947595902291694</v>
+        <v>0.052404097708306</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.002232982694865</v>
+        <v>0.297303594395816</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0473372781065089</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5739644970414201</v>
+        <v>0.811475409836066</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9</v>
+        <v>4.375</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0307714537617555</v>
+        <v>0.0225420249198484</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0499794745484401</v>
+        <v>-0.0610157726816648</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.012151874370767</v>
+        <v>0.272691129761687</v>
       </c>
       <c r="N30" t="n">
-        <v>-3.41905041797283</v>
+        <v>0.51524628388225</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.286958928007923</v>
+        <v>0.003788160950931</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0046082949308755</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="H31" t="n">
-        <v>0.663594470046083</v>
+        <v>0.568627450980392</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>0.9</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9689883767755409</v>
+        <v>-0.0329231830072793</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.18780109236638</v>
+        <v>-0.0575105938124235</v>
       </c>
       <c r="M31" t="n">
-        <v>6.10744636149398</v>
+        <v>-0.0106556358782361</v>
       </c>
       <c r="N31" t="n">
-        <v>0.484494188387771</v>
+        <v>-3.65813144525326</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3280,11 +3280,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.46940560201862</v>
+        <v>0.176435871421563</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.92093023255814</v>
+        <v>0.803370786516854</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.33</v>
+        <v>10.34</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002866610054139</v>
+        <v>-0.0183809950462771</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.09890065805213689</v>
+        <v>-0.0447244897959183</v>
       </c>
       <c r="M32" t="n">
-        <v>0.111645098577543</v>
+        <v>0.0111727554006493</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0391079134261809</v>
+        <v>-0.177765909538463</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.59675202974633</v>
+        <v>0.882904828048658</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.112359550561798</v>
       </c>
       <c r="H33" t="n">
+        <v>0.174157303370787</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.37</v>
+        <v>0.013</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0166515816195373</v>
+        <v>-0.0001177747169044</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0432002827154555</v>
+        <v>-0.0003333574370743</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0435280743454738</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.50042746473981</v>
+        <v>-0.905959360803722</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3448,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3473,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.59675202974633</v>
+        <v>0.293554812401436</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H34" t="n">
+        <v>0.717514124293785</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>89.33</v>
+        <v>203</v>
       </c>
       <c r="K34" t="n">
-        <v>1.1974995284893</v>
+        <v>1.90045635694777</v>
       </c>
       <c r="L34" t="n">
-        <v>-5.59150724280762</v>
+        <v>-3.92924938616305</v>
       </c>
       <c r="M34" t="n">
-        <v>3.53493759814202</v>
+        <v>9.615080406161679</v>
       </c>
       <c r="N34" t="n">
-        <v>1.3405345667629</v>
+        <v>0.936185397511218</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3535,7 +3539,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3545,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.768783636774762</v>
+        <v>0.987398599700165</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.668604651162791</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.348837209302326</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>5.6</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.626010844875346</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.50157032881883</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.63694714928247</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>11.1787650870598</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3593,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3622,7 +3630,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3632,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.429013828493761</v>
+        <v>0.571716465943471</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.198717948717949</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.121794871794872</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.373</v>
+        <v>0.0045</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0018158735795454</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0202756411642476</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0140450823485929</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.486829377894224</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3709,7 +3721,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3719,46 +3735,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.849114404497701</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>88.16500000000001</v>
+        <v>0.413</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.0026355981238901</v>
       </c>
       <c r="L37" t="n">
-        <v>-2.76150468004288</v>
+        <v>-0.009969034602540301</v>
       </c>
       <c r="M37" t="n">
-        <v>1.4471188931419</v>
+        <v>0.0009873734587085999</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-0.638159352031521</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3767,7 +3783,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3796,7 +3812,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3806,11 +3826,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3821,31 +3841,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.971849477334444</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.556179775280899</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.185</v>
+        <v>7.65</v>
       </c>
       <c r="K38" t="n">
-        <v>0.186692151004889</v>
+        <v>0.0121871871871871</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.156157457230842</v>
+        <v>0.0016585922145939</v>
       </c>
       <c r="M38" t="n">
-        <v>0.353103337815962</v>
+        <v>0.0223566274659481</v>
       </c>
       <c r="N38" t="n">
-        <v>3.6006200772399</v>
+        <v>0.159309636433819</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3854,7 +3874,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3884,6 +3904,1165 @@
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.952633452998947</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0224719101123595</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.859550561797753</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0056230690416141</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0116667517766147</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.26931581074811</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9497407071416289</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.668539325842697</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0061425311457188</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0131480698320331</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.9033134037821861</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.347343826462856</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.471910112359551</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0001335477997686</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0003998357963875</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0006659148980118</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.430799354092267</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.459232612073534</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.943502824858757</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0074354420599215</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.121545194291112</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.187419523709979</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.118587592662226</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.002232982694865</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0473372781065089</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5739644970414201</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0307714537617555</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0499794745484401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.012151874370767</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-3.41905041797283</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.286958928007923</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0046082949308755</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.663594470046083</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>200</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9689883767755409</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-3.18780109236638</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6.10744636149398</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.484494188387771</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.46940560201862</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.92093023255814</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.002866610054139</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.09890065805213689</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.111645098577543</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0391079134261809</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0166515816195373</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0432002827154555</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0435280743454738</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.50042746473981</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89.33</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.1974995284893</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-5.59150724280762</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.53493759814202</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.3405345667629</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.626010844875346</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-1.50157032881883</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.63694714928247</v>
+      </c>
+      <c r="N48" t="n">
+        <v>11.1787650870598</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0018158735795454</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.0202756411642476</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0140450823485929</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.486829377894224</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>88.16500000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.76150468004288</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.4471188931419</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8584345646688269</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.185</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.186692151004889</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.156157457230842</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.353103337815962</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.6006200772399</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
+++ b/trend_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0068537891433242</v>
+        <v>0.0963552364607146</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.967741935483871</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>12.5</v>
       </c>
       <c r="K2" t="n">
-        <v>6.81611969111969</v>
+        <v>2.18761091393079</v>
       </c>
       <c r="L2" t="n">
-        <v>1.16006336377999</v>
+        <v>-0.373071826473279</v>
       </c>
       <c r="M2" t="n">
-        <v>11.723598251895</v>
+        <v>9.25678735162157</v>
       </c>
       <c r="N2" t="n">
-        <v>54.5289575289575</v>
+        <v>17.5008873114463</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.682445965571494</v>
+        <v>0.06473202046392899</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H3" t="n">
-        <v>0.755102040816326</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0.34</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0079666583416583</v>
+        <v>-0.0585864661654135</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0529010059366412</v>
+        <v>-0.175172808961719</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07383677582086411</v>
+        <v>0.0002185375771656</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3431348063701</v>
+        <v>-17.2313135780628</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.741998532278207</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.27</v>
+        <v>10.35</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0283454145376917</v>
+        <v>-0.0628407388271764</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0621726884047797</v>
+        <v>-0.156226751681289</v>
       </c>
       <c r="M4" t="n">
-        <v>0.209100879430222</v>
+        <v>0.0106362166049835</v>
       </c>
       <c r="N4" t="n">
-        <v>0.276002088974603</v>
+        <v>-0.607156896880932</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.588382563155358</v>
+        <v>0.0811331078514697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.152542372881356</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.338983050847458</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.011</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0009154135338344999</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.001337912087912</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0010648688046647</v>
+        <v>0.002076816242843</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8.32194121667805</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.745585597730879</v>
+        <v>0.50782741488815</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.830508474576271</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="K6" t="n">
-        <v>-18.8422619047619</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-101.157415847673</v>
+        <v>-47.0090434826345</v>
       </c>
       <c r="M6" t="n">
-        <v>26.1889982633094</v>
+        <v>41.2419841891998</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.54184173669468</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.08035827090727771</v>
+        <v>0.129866305952957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.679245283018868</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="H7" t="n">
-        <v>0.358490566037736</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0.005</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.348254140499686</v>
+        <v>0.920923770812788</v>
       </c>
       <c r="G8" t="n">
         <v>0.186440677966102</v>
@@ -1131,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004949460007990999</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.06381681469689621</v>
+        <v>0.017694408912003</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H9" t="n">
         <v>0.898305084745763</v>
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.327</v>
+        <v>0.363</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0320142958365804</v>
+        <v>0.0415101136657195</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0014626144570731</v>
+        <v>0.0099012287023813</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0520806096283103</v>
+        <v>0.0617952967370348</v>
       </c>
       <c r="N9" t="n">
-        <v>9.790304537180569</v>
+        <v>11.4352930208594</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.406912122661249</v>
+        <v>0.364391972002429</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.779661016949153</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.008553864168617999</v>
+        <v>-0.007905844155843901</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.039997017417448</v>
+        <v>-0.0407701738406156</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0442084226701394</v>
+        <v>0.024009386557227</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.111089145046988</v>
+        <v>-0.102540131723009</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0648172904395064</v>
+        <v>0.0181792765863954</v>
       </c>
       <c r="G11" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9830508474576271</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.336</v>
+        <v>0.374</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0352525835174834</v>
+        <v>0.0396142499675029</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0015157455820469</v>
+        <v>0.015487021406924</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0524242625249931</v>
+        <v>0.0640003955886071</v>
       </c>
       <c r="N11" t="n">
-        <v>10.4918403325844</v>
+        <v>10.5920454458564</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.857410778965209</v>
+        <v>4.28414900545523e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.135593220338983</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>0.61</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.21264940239044</v>
+        <v>0.0641846280709736</v>
       </c>
       <c r="L12" t="n">
-        <v>-7.37865953848656</v>
+        <v>0.0357245916792261</v>
       </c>
       <c r="M12" t="n">
-        <v>0.52153902138379</v>
+        <v>0.09022315455777991</v>
       </c>
       <c r="N12" t="n">
-        <v>-8.08432934926959</v>
+        <v>10.5220701755694</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.233492630673392</v>
+        <v>0.130161825706653</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.847457627118644</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.61</v>
+        <v>0.039</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0199731161695448</v>
+        <v>0.0023717532467532</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0198060842817317</v>
+        <v>-0.0012795991201771</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0502516062665112</v>
+        <v>0.008158335098073601</v>
       </c>
       <c r="N13" t="n">
-        <v>3.27428133926963</v>
+        <v>6.08141858141859</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.814987737848588</v>
+        <v>0.07392756892108571</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76271186440678</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0023717532467532</v>
+        <v>1.68834719246236</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.009213159466922</v>
+        <v>-0.080073106952878</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0018320599410047</v>
+        <v>4.34579850458023</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.92938311688312</v>
+        <v>19.7930503219502</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.912093631248778</v>
+        <v>0.612951084814287</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.949152542372881</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.2</v>
+        <v>5.025</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.652232142857143</v>
+        <v>-0.0175600961538462</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.64078308996065</v>
+        <v>-0.385128054876854</v>
       </c>
       <c r="M15" t="n">
-        <v>0.222416681879678</v>
+        <v>0.252060676475688</v>
       </c>
       <c r="N15" t="n">
-        <v>-6.39443277310924</v>
+        <v>-0.349454649827784</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0015593362732849</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.695238095238095</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.568648771581161</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>7.25</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0175600961538462</v>
+        <v>-0.0679442265071709</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.398344481064096</v>
+        <v>-0.109321497151659</v>
       </c>
       <c r="M16" t="n">
-        <v>0.250587267345563</v>
+        <v>-0.0228273865221372</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.242208222811671</v>
+        <v>-13.5888453014342</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8.935673643195591e-05</v>
+        <v>0.347616382240549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.037037037037037</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7037037037037041</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.74</v>
+        <v>10.27</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.111811224489796</v>
+        <v>-0.0100343406593404</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.170468737962293</v>
+        <v>-0.0447214479269664</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0579761904761905</v>
+        <v>0.0299615104322414</v>
       </c>
       <c r="N17" t="n">
-        <v>-15.1096249310535</v>
+        <v>-0.0977053618241524</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.287943129111241</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.100840336134454</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.210084033613445</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.328521674053785</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.840336134453782</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.27</v>
+        <v>0.013</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0159934318555008</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0514500872324929</v>
+        <v>-0.0001950605826016</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0301030219780231</v>
+        <v>0.0004614951359075</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.155729618846162</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.395861500409604</v>
+        <v>0.0803437404206008</v>
       </c>
       <c r="G19" t="n">
-        <v>0.100840336134454</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.201680672268908</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.013</v>
+        <v>220</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.696428571428569</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.000273712877473</v>
+        <v>-0.9106411280272489</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0004987291877709</v>
+        <v>25.3870282399002</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.95292207792208</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0101866992702349</v>
+        <v>0.0167171622957406</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.7610619469026551</v>
       </c>
       <c r="H20" t="n">
-        <v>0.686440677966102</v>
+        <v>0.256637168141593</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>196.5</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>15.597465437788</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.37844146990127</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>34.8388285104928</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.93764144416693</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0243918155780028</v>
+        <v>0.977433755578639</v>
       </c>
       <c r="G21" t="n">
-        <v>0.778761061946903</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="H21" t="n">
-        <v>0.238938053097345</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0.005</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.000111018237082</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0002829295540161</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-2.22036474164134</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.987923230432464</v>
+        <v>0.238204637093091</v>
       </c>
       <c r="G22" t="n">
-        <v>0.151260504201681</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="H22" t="n">
-        <v>0.151260504201681</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.43</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001425644028103</v>
+        <v>0.001497949419002</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003331057537677</v>
+        <v>-0.0040058432792584</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0117896413319128</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.85128805620609</v>
+        <v>0.348360330000477</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,46 +2465,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.07942398455058799</v>
+        <v>0.470696998291794</v>
       </c>
       <c r="G23" t="n">
-        <v>0.100840336134454</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.848739495798319</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.327</v>
+        <v>7.68</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0032507416704701</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0131122993865851</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0131088773574679</v>
+        <v>0.0120227123107309</v>
       </c>
       <c r="N23" t="n">
-        <v>0.994110602590246</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.052404097708306</v>
+        <v>0.309385236352316</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H24" t="n">
-        <v>0.596638655462185</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>7.69</v>
+        <v>0.4567</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0142120622568092</v>
+        <v>0.0005518887362637</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0267582417582414</v>
+        <v>-0.0053951591028399</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0108726001745027</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.184812253014424</v>
+        <v>0.120842727449908</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0993905850391229</v>
+        <v>0.0092311214331191</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0336134453781513</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.865546218487395</v>
+        <v>0.73109243697479</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.336</v>
+        <v>0.68</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0038342081241442</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0006627491611462</v>
+        <v>0.0028670906198825</v>
       </c>
       <c r="M25" t="n">
-        <v>0.014200474028866</v>
+        <v>0.0324109417010329</v>
       </c>
       <c r="N25" t="n">
-        <v>1.14113337028102</v>
+        <v>2.95127666451196</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0570486288386673</v>
+        <v>0.0554022098057572</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0756302521008403</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.470588235294118</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>0.033</v>
       </c>
       <c r="K26" t="n">
-        <v>0.501717032967033</v>
+        <v>0.0014361074705111</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.19847203222657</v>
+        <v>0.0031802010004266</v>
       </c>
       <c r="N26" t="n">
-        <v>4.56106393606394</v>
+        <v>4.35184081973073</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0354738135671918</v>
+        <v>0.0472527142157606</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.781512605042017</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.599</v>
+        <v>7.11</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0111097915242652</v>
+        <v>0.491682692307692</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25221204819054e-05</v>
+        <v>0.0002134307358486</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0222225437969678</v>
+        <v>1.54681493382257</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85472312592074</v>
+        <v>6.91536838688738</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0247282654145414</v>
+        <v>0.472540510645077</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.579831932773109</v>
+        <v>0.801587301587302</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03</v>
+        <v>4.375</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001661737943585</v>
+        <v>0.0061484303912647</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001488692907052</v>
+        <v>-0.12965298238972</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.18752930824695</v>
       </c>
       <c r="N28" t="n">
-        <v>5.53912647861693</v>
+        <v>0.140535551800338</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.216737091579754</v>
+        <v>1.52935805529664e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0.949579831932773</v>
+        <v>0.613333333333333</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.68</v>
+        <v>0.88</v>
       </c>
       <c r="K29" t="n">
-        <v>0.172820746132848</v>
+        <v>-0.0565072202992976</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0989099905011635</v>
+        <v>-0.0882794147320947</v>
       </c>
       <c r="M29" t="n">
-        <v>0.706829770834012</v>
+        <v>-0.0329707058751547</v>
       </c>
       <c r="N29" t="n">
-        <v>3.04261876994451</v>
+        <v>-6.42127503401109</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.297303594395816</v>
+        <v>0.187972691989085</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.811475409836066</v>
+        <v>0.803370786516854</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.375</v>
+        <v>10.335</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0225420249198484</v>
+        <v>-0.0159934318555008</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0610157726816648</v>
+        <v>-0.0433131945398244</v>
       </c>
       <c r="M30" t="n">
-        <v>0.272691129761687</v>
+        <v>0.0096897864601917</v>
       </c>
       <c r="N30" t="n">
-        <v>0.51524628388225</v>
+        <v>-0.154750187281092</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.003788160950931</v>
+        <v>0.924259089704605</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0457516339869281</v>
+        <v>0.106741573033708</v>
       </c>
       <c r="H31" t="n">
-        <v>0.568627450980392</v>
+        <v>0.174157303370787</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9</v>
+        <v>0.014</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0329231830072793</v>
+        <v>-0.0001743648471094</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0575105938124235</v>
+        <v>-0.0004431301182893</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0106556358782361</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.65813144525326</v>
+        <v>-1.24546319363866</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.317114088808371</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.717514124293785</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.176435871421563</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.803370786516854</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.34</v>
+        <v>203</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0183809950462771</v>
+        <v>1.5599009869387</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0447244897959183</v>
+        <v>-4.19948063659357</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0111727554006493</v>
+        <v>8.733407631934771</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.177765909538463</v>
+        <v>0.768424131496898</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.882904828048658</v>
+        <v>0.99965403467141</v>
       </c>
       <c r="G33" t="n">
-        <v>0.112359550561798</v>
+        <v>0.645348837209302</v>
       </c>
       <c r="H33" t="n">
-        <v>0.174157303370787</v>
+        <v>0.366279069767442</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0001177747169044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0003333574370743</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.905959360803722</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.293554812401436</v>
+        <v>0.864988352673788</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0056497175141242</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.717514124293785</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>203</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>1.90045635694777</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.92924938616305</v>
+        <v>-0.0001248291182501</v>
       </c>
       <c r="M34" t="n">
-        <v>9.615080406161679</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.936185397511218</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.987398599700165</v>
+        <v>0.677508608678098</v>
       </c>
       <c r="G35" t="n">
-        <v>0.668604651162791</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H35" t="n">
-        <v>0.348837209302326</v>
+        <v>0.869047619047619</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.435</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0007961852861035</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0075467410950344</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0025749539651258</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-0.183031100253688</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.571716465943471</v>
+        <v>0.984431602990965</v>
       </c>
       <c r="G36" t="n">
-        <v>0.198717948717949</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.121794871794872</v>
+        <v>0.539325842696629</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0045</v>
+        <v>7.66</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0125731497418245</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0029913659199606</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0213382527147555</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.16414033605515</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.849114404497701</v>
+        <v>0.993515481540977</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H37" t="n">
-        <v>0.867924528301887</v>
+        <v>0.898876404494382</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.413</v>
+        <v>0.4605</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0026355981238901</v>
+        <v>-0.0088889027180938</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.009969034602540301</v>
+        <v>-0.0164374726187976</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0009873734587085999</v>
+        <v>-0.0023264331210191</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.638159352031521</v>
+        <v>-1.93027203433091</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.971849477334444</v>
+        <v>0.8774872989572839</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.556179775280899</v>
+        <v>0.657303370786517</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.65</v>
+        <v>0.6905</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0121871871871871</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0016585922145939</v>
+        <v>-0.0122617269854901</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0223566274659481</v>
+        <v>0.0013919610001043</v>
       </c>
       <c r="N38" t="n">
-        <v>0.159309636433819</v>
+        <v>-0.723123060102365</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.952633452998947</v>
+        <v>0.168692004135395</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0224719101123595</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.859550561797753</v>
+        <v>0.48314606741573</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.443</v>
+        <v>0.0345</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0056230690416141</v>
+        <v>0.0003983097055616</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0116667517766147</v>
+        <v>-0.0002851911879892</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.26931581074811</v>
+        <v>1.15452088568584</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9497407071416289</v>
+        <v>0.275930413262597</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.668539325842697</v>
+        <v>0.938202247191011</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.68</v>
+        <v>6.785</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0061425311457188</v>
+        <v>0.06326807786698189</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0131480698320331</v>
+        <v>-0.09818559636928929</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.260632398250171</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.9033134037821861</v>
+        <v>0.932469828548002</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.347343826462856</v>
+        <v>0.000162193186328</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H41" t="n">
-        <v>0.471910112359551</v>
+        <v>0.5730337078651681</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>0.031</v>
+        <v>0.9</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001335477997686</v>
+        <v>-0.03330547112462</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0003998357963875</v>
+        <v>-0.0524776209586316</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0006659148980118</v>
+        <v>-0.0175754544253408</v>
       </c>
       <c r="N41" t="n">
-        <v>0.430799354092267</v>
+        <v>-3.70060790273556</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.459232612073534</v>
+        <v>0.848272260864413</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="H42" t="n">
-        <v>0.943502824858757</v>
+        <v>0.160194174757282</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>6.27</v>
+        <v>0.014</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0074354420599215</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.121545194291112</v>
+        <v>-0.0002860845792811</v>
       </c>
       <c r="M42" t="n">
-        <v>0.187419523709979</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.118587592662226</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.002232982694865</v>
+        <v>0.444100504262038</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0473372781065089</v>
+        <v>0.0046082949308755</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5739644970414201</v>
+        <v>0.67741935483871</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9</v>
+        <v>200</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0307714537617555</v>
+        <v>0.242547298458339</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0499794745484401</v>
+        <v>-3.98663238161188</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.012151874370767</v>
+        <v>5.50278253216778</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.41905041797283</v>
+        <v>0.12127364922917</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4368,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.286958928007923</v>
+        <v>0.985645462131279</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0046082949308755</v>
+        <v>0.66</v>
       </c>
       <c r="H44" t="n">
-        <v>0.663594470046083</v>
+        <v>0.355</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9689883767755409</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-3.18780109236638</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.10744636149398</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.484494188387771</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4474,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.46940560201862</v>
+        <v>0.910037209663391</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.06951871657754009</v>
       </c>
       <c r="H45" t="n">
-        <v>0.92093023255814</v>
+        <v>0.866310160427808</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>7.33</v>
+        <v>0.442</v>
       </c>
       <c r="K45" t="n">
-        <v>0.002866610054139</v>
+        <v>-0.0032852140915092</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.09890065805213689</v>
+        <v>-0.009174142178738499</v>
       </c>
       <c r="M45" t="n">
-        <v>0.111645098577543</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0391079134261809</v>
+        <v>-0.743261106676298</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4565,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.59675202974633</v>
+        <v>0.974710445594499</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0194174757281553</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.888349514563107</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0166515816195373</v>
+        <v>-0.0053004626413276</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0432002827154555</v>
+        <v>-0.010408034295415</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0435280743454738</v>
+        <v>-0.0004942165237853</v>
       </c>
       <c r="N46" t="n">
-        <v>4.50042746473981</v>
+        <v>-1.15227448724513</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4627,7 +4627,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4637,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4652,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.59675202974633</v>
+        <v>0.291726476602183</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>89.33</v>
+        <v>7.46</v>
       </c>
       <c r="K47" t="n">
-        <v>1.1974995284893</v>
+        <v>0.0249606971785038</v>
       </c>
       <c r="L47" t="n">
-        <v>-5.59150724280762</v>
+        <v>-0.0664369063277868</v>
       </c>
       <c r="M47" t="n">
-        <v>3.53493759814202</v>
+        <v>0.173783349252465</v>
       </c>
       <c r="N47" t="n">
-        <v>1.3405345667629</v>
+        <v>0.334593795958496</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4685,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4714,7 +4718,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4724,7 +4732,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4739,7 +4747,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4751,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.6</v>
+        <v>0.39</v>
       </c>
       <c r="K48" t="n">
-        <v>0.626010844875346</v>
+        <v>0.0237853363713051</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.50157032881883</v>
+        <v>-0.0432002827154555</v>
       </c>
       <c r="M48" t="n">
-        <v>1.63694714928247</v>
+        <v>0.0624731000368559</v>
       </c>
       <c r="N48" t="n">
-        <v>11.1787650870598</v>
+        <v>6.09880419777055</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4772,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4811,11 +4819,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4826,7 +4834,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.429013828493761</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4838,19 +4846,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.373</v>
+        <v>93</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0018158735795454</v>
+        <v>1.58858857579853</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0202756411642476</v>
+        <v>-5.08135947465903</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0140450823485929</v>
+        <v>6.21050994241852</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.486829377894224</v>
+        <v>1.70815975892315</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4859,7 +4867,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4898,46 +4906,46 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>88.16500000000001</v>
+        <v>6.42</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.227508715885452</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.76150468004288</v>
+        <v>-1.50157032881883</v>
       </c>
       <c r="M50" t="n">
-        <v>1.4471188931419</v>
+        <v>1.20310522699524</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>3.54374946862074</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4946,7 +4954,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4985,7 +4993,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5000,7 +5008,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5012,19 +5020,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.185</v>
+        <v>0.38</v>
       </c>
       <c r="K51" t="n">
-        <v>0.186692151004889</v>
+        <v>0.005189344262295</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.156157457230842</v>
+        <v>-0.018494208765157</v>
       </c>
       <c r="M51" t="n">
-        <v>0.353103337815962</v>
+        <v>0.0224773920786469</v>
       </c>
       <c r="N51" t="n">
-        <v>3.6006200772399</v>
+        <v>1.36561691113029</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5033,7 +5041,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5063,6 +5071,180 @@
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.878482519852739</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>88.16500000000001</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.863837002840909</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.4694535162638</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.67654882176043</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.979795840572686</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.963180864939849</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.306393874365977</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0177819962238194</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.550983458112457</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5.54559048626203</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
+++ b/trend_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,49 +139,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Extremely likely increasing</t>
@@ -666,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.0963552364607146</v>
+        <v>0.6295658100845259</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.966666666666667</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>2.18761091393079</v>
+        <v>-0.900426675094817</v>
       </c>
       <c r="L2">
-        <v>-0.373071826473279</v>
+        <v>-4.56164460690943</v>
       </c>
       <c r="M2">
-        <v>9.25678735162157</v>
+        <v>3.56508701714373</v>
       </c>
       <c r="N2">
-        <v>17.5008873114463</v>
+        <v>-6.9263590391909</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -705,19 +708,19 @@
         <v>5525994</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,37 +740,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.06473202046392899</v>
+        <v>0.231287381045626</v>
       </c>
       <c r="G3">
-        <v>0.0217391304347826</v>
+        <v>0.025</v>
       </c>
       <c r="H3">
-        <v>0.804347826086957</v>
+        <v>0.85</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="K3">
-        <v>-0.0585864661654135</v>
+        <v>-0.01166037988229</v>
       </c>
       <c r="L3">
-        <v>-0.175172808961719</v>
+        <v>-0.102255720266635</v>
       </c>
       <c r="M3">
-        <v>0.0002185375771656</v>
+        <v>0.0276174492661571</v>
       </c>
       <c r="N3">
-        <v>-17.2313135780628</v>
+        <v>-4.02082064906552</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>1819188</v>
@@ -776,19 +779,19 @@
         <v>5525994</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,37 +811,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.109935855314351</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.966101694915254</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.35</v>
+        <v>10.36</v>
       </c>
       <c r="K4">
-        <v>-0.0628407388271764</v>
+        <v>-0.048499313186813</v>
       </c>
       <c r="L4">
-        <v>-0.156226751681289</v>
+        <v>-0.13138785359662</v>
       </c>
       <c r="M4">
-        <v>0.0106362166049835</v>
+        <v>0.0385131097649146</v>
       </c>
       <c r="N4">
-        <v>-0.607156896880932</v>
+        <v>-0.468140088675802</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1819188</v>
@@ -847,19 +850,19 @@
         <v>5525994</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0811331078514697</v>
+        <v>0.148598255817014</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -894,22 +897,22 @@
         <v>0.011</v>
       </c>
       <c r="K5">
-        <v>0.0009154135338344999</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0003085293440612</v>
       </c>
       <c r="M5">
-        <v>0.002076816242843</v>
+        <v>0.0016054945054945</v>
       </c>
       <c r="N5">
-        <v>8.32194121667805</v>
+        <v>5.45230631437528</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1819188</v>
@@ -918,19 +921,19 @@
         <v>5525994</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.50782741488815</v>
+        <v>0.908938310076989</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.898305084745763</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -965,22 +968,22 @@
         <v>270</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-27.4310204081633</v>
       </c>
       <c r="L6">
-        <v>-47.0090434826345</v>
+        <v>-82.3793215596848</v>
       </c>
       <c r="M6">
-        <v>41.2419841891998</v>
+        <v>4.55114987859978</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-10.1596371882086</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1819188</v>
@@ -989,19 +992,19 @@
         <v>5525994</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.129866305952957</v>
+        <v>0.311839398687405</v>
       </c>
       <c r="G7">
-        <v>0.672727272727273</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="H7">
-        <v>0.345454545454545</v>
+        <v>0.339285714285714</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1051,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1819188</v>
@@ -1060,19 +1063,19 @@
         <v>5525994</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,19 +1089,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.920923770812788</v>
+        <v>0.999481722171556</v>
       </c>
       <c r="G8">
-        <v>0.186440677966102</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="H8">
-        <v>0.169491525423729</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1107,16 +1110,16 @@
         <v>0.004</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-0.0006549611476389</v>
       </c>
       <c r="L8">
-        <v>-0.0004993164730006</v>
+        <v>-0.0009980906001177999</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>-16.3740286909743</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1131,19 +1134,19 @@
         <v>5525994</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1163,7 +1166,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.017694408912003</v>
+        <v>0.305785100884614</v>
       </c>
       <c r="G9">
         <v>0.0508474576271186</v>
@@ -1175,25 +1178,25 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.363</v>
+        <v>0.307</v>
       </c>
       <c r="K9">
-        <v>0.0415101136657195</v>
+        <v>0.0012542925824175</v>
       </c>
       <c r="L9">
-        <v>0.0099012287023813</v>
+        <v>-0.0093957368110617</v>
       </c>
       <c r="M9">
-        <v>0.0617952967370348</v>
+        <v>0.0338880887531495</v>
       </c>
       <c r="N9">
-        <v>11.4352930208594</v>
+        <v>0.408564359093672</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1819188</v>
@@ -1202,19 +1205,19 @@
         <v>5525994</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1234,37 +1237,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.364391972002429</v>
+        <v>0.996554037617178</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.711864406779661</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="K10">
-        <v>-0.007905844155843901</v>
+        <v>0.0585677842565597</v>
       </c>
       <c r="L10">
-        <v>-0.0407701738406156</v>
+        <v>0.0226525977052858</v>
       </c>
       <c r="M10">
-        <v>0.024009386557227</v>
+        <v>0.100201261575422</v>
       </c>
       <c r="N10">
-        <v>-0.102540131723009</v>
+        <v>0.758650055136784</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1819188</v>
@@ -1273,16 +1276,16 @@
         <v>5525994</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0181792765863954</v>
+        <v>0.359108064766993</v>
       </c>
       <c r="G11">
         <v>0.0169491525423729</v>
@@ -1314,25 +1317,25 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.374</v>
+        <v>0.315</v>
       </c>
       <c r="K11">
-        <v>0.0396142499675029</v>
+        <v>0.0038793049056207</v>
       </c>
       <c r="L11">
-        <v>0.015487021406924</v>
+        <v>-0.0104754382547467</v>
       </c>
       <c r="M11">
-        <v>0.0640003955886071</v>
+        <v>0.03396468287296</v>
       </c>
       <c r="N11">
-        <v>10.5920454458564</v>
+        <v>1.23152536686371</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1819188</v>
@@ -1341,19 +1344,19 @@
         <v>5525994</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1373,37 +1376,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>4.28414900545523E-05</v>
+        <v>0.0547699561977743</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.830508474576271</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="K12">
-        <v>0.0641846280709736</v>
+        <v>0.0324443681318681</v>
       </c>
       <c r="L12">
-        <v>0.0357245916792261</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.09022315455777991</v>
+        <v>0.08340632159842749</v>
       </c>
       <c r="N12">
-        <v>10.5220701755694</v>
+        <v>5.14989970347114</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1819188</v>
@@ -1412,19 +1415,19 @@
         <v>5525994</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,43 +1441,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13">
-        <v>0.130161825706653</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.711864406779661</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="K13">
-        <v>0.0023717532467532</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0012795991201771</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M13">
-        <v>0.008158335098073601</v>
+        <v>0.0039533811386898</v>
       </c>
       <c r="N13">
-        <v>6.08141858141859</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1819188</v>
@@ -1483,19 +1486,19 @@
         <v>5525994</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1515,37 +1518,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.07392756892108571</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.529999999999999</v>
+        <v>6.11</v>
       </c>
       <c r="K14">
-        <v>1.68834719246236</v>
+        <v>0.22828125</v>
       </c>
       <c r="L14">
-        <v>-0.080073106952878</v>
+        <v>-0.245124530886494</v>
       </c>
       <c r="M14">
-        <v>4.34579850458023</v>
+        <v>1.71596061529072</v>
       </c>
       <c r="N14">
-        <v>19.7930503219502</v>
+        <v>3.73619067103109</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1819188</v>
@@ -1554,19 +1557,19 @@
         <v>5525994</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1586,37 +1589,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.612951084814287</v>
+        <v>0.72023692534376</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.864864864864865</v>
+        <v>0.897058823529412</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.025</v>
+        <v>6.25</v>
       </c>
       <c r="K15">
-        <v>-0.0175600961538462</v>
+        <v>-0.112625878220141</v>
       </c>
       <c r="L15">
-        <v>-0.385128054876854</v>
+        <v>-0.846487378094035</v>
       </c>
       <c r="M15">
-        <v>0.252060676475688</v>
+        <v>0.262188845260438</v>
       </c>
       <c r="N15">
-        <v>-0.349454649827784</v>
+        <v>-1.80201405152225</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1819188</v>
@@ -1625,19 +1628,19 @@
         <v>5525994</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1657,37 +1660,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.0015593362732849</v>
+        <v>0.001863737021494</v>
       </c>
       <c r="G16">
-        <v>0.0380952380952381</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="H16">
-        <v>0.695238095238095</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="K16">
-        <v>-0.0679442265071709</v>
+        <v>-0.0587927565392354</v>
       </c>
       <c r="L16">
-        <v>-0.109321497151659</v>
+        <v>-0.100656747840643</v>
       </c>
       <c r="M16">
-        <v>-0.0228273865221372</v>
+        <v>-0.019574526381092</v>
       </c>
       <c r="N16">
-        <v>-13.5888453014342</v>
+        <v>-13.672734078892</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1819188</v>
@@ -1696,19 +1699,19 @@
         <v>5525994</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>0.347616382240549</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1743,22 +1746,22 @@
         <v>10.27</v>
       </c>
       <c r="K17">
-        <v>-0.0100343406593404</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0447214479269664</v>
+        <v>-0.0301020015427499</v>
       </c>
       <c r="M17">
-        <v>0.0299615104322414</v>
+        <v>0.0357309941095621</v>
       </c>
       <c r="N17">
-        <v>-0.0977053618241524</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1819188</v>
@@ -1767,19 +1770,19 @@
         <v>5525994</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,19 +1796,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.287943129111241</v>
+        <v>0.614288869223188</v>
       </c>
       <c r="G18">
-        <v>0.100840336134454</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="H18">
-        <v>0.210084033613445</v>
+        <v>0.19327731092437</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1817,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0001950605826016</v>
+        <v>-0.0003951662719839</v>
       </c>
       <c r="M18">
-        <v>0.0004614951359075</v>
+        <v>0.0003158708490855</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1829,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1819188</v>
@@ -1838,19 +1841,19 @@
         <v>5525994</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1870,31 +1873,31 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0803437404206008</v>
+        <v>0.45278141000403</v>
       </c>
       <c r="G19">
         <v>0.008474576271186401</v>
       </c>
       <c r="H19">
-        <v>0.703389830508475</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="K19">
-        <v>8.696428571428569</v>
+        <v>0.08249576510446049</v>
       </c>
       <c r="L19">
-        <v>-0.9106411280272489</v>
+        <v>-8.75298471634405</v>
       </c>
       <c r="M19">
-        <v>25.3870282399002</v>
+        <v>12.2654162641123</v>
       </c>
       <c r="N19">
-        <v>3.95292207792208</v>
+        <v>0.0336717408589634</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
@@ -1909,19 +1912,19 @@
         <v>5525994</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0167171622957406</v>
+        <v>0.0095344808763009</v>
       </c>
       <c r="G20">
         <v>0.7610619469026551</v>
@@ -1971,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1819188</v>
@@ -1980,19 +1983,19 @@
         <v>5525994</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,40 +2012,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.977433755578639</v>
+        <v>0.999719364705122</v>
       </c>
       <c r="G21">
-        <v>0.176470588235294</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="H21">
-        <v>0.159663865546218</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21">
-        <v>-0.000111018237082</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L21">
-        <v>-0.0002829295540161</v>
+        <v>-0.0004373935582466</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>-2.22036474164134</v>
+        <v>-6.24145591250854</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1819188</v>
@@ -2051,19 +2054,19 @@
         <v>5525994</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2083,37 +2086,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.238204637093091</v>
+        <v>0.847852095292421</v>
       </c>
       <c r="G22">
-        <v>0.0840336134453782</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H22">
-        <v>0.865546218487395</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.43</v>
+        <v>0.387</v>
       </c>
       <c r="K22">
-        <v>0.001497949419002</v>
+        <v>-0.0044938482570061</v>
       </c>
       <c r="L22">
-        <v>-0.0040058432792584</v>
+        <v>-0.0151312958596128</v>
       </c>
       <c r="M22">
-        <v>0.0117896413319128</v>
+        <v>0.0011323152111219</v>
       </c>
       <c r="N22">
-        <v>0.348360330000477</v>
+        <v>-1.16120110000159</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1819188</v>
@@ -2122,19 +2125,19 @@
         <v>5525994</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2151,40 +2154,40 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.470696998291794</v>
+        <v>0.994684488490128</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.588235294117647</v>
+        <v>0.613445378151261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.68</v>
+        <v>7.7</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.0212718396711202</v>
       </c>
       <c r="L23">
-        <v>-0.0131122993865851</v>
+        <v>0.008429599544304001</v>
       </c>
       <c r="M23">
-        <v>0.0120227123107309</v>
+        <v>0.0348196767426616</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.276257658066497</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1819188</v>
@@ -2193,16 +2196,16 @@
         <v>5525994</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2222,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.309385236352316</v>
+        <v>0.89081791773111</v>
       </c>
       <c r="G24">
         <v>0.0336134453781513</v>
@@ -2234,25 +2237,25 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>0.4567</v>
+        <v>0.415</v>
       </c>
       <c r="K24">
-        <v>0.0005518887362637</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L24">
-        <v>-0.0053951591028399</v>
+        <v>-0.0185576334605308</v>
       </c>
       <c r="M24">
-        <v>0.0108726001745027</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="N24">
-        <v>0.120842727449908</v>
+        <v>-1.20317222409803</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1819188</v>
@@ -2261,19 +2264,19 @@
         <v>5525994</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2293,13 +2296,13 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0092311214331191</v>
+        <v>0.17967092597625</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.73109243697479</v>
+        <v>0.672268907563025</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2308,22 +2311,22 @@
         <v>0.68</v>
       </c>
       <c r="K25">
-        <v>0.0200686813186813</v>
+        <v>0.0048848024316109</v>
       </c>
       <c r="L25">
-        <v>0.0028670906198825</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="M25">
-        <v>0.0324109417010329</v>
+        <v>0.0216445117432363</v>
       </c>
       <c r="N25">
-        <v>2.95127666451196</v>
+        <v>0.718353298766316</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1819188</v>
@@ -2332,19 +2335,19 @@
         <v>5525994</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>0.0554022098057572</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2376,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="K26">
-        <v>0.0014361074705111</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0008201730613825</v>
       </c>
       <c r="M26">
-        <v>0.0031802010004266</v>
+        <v>0.0017067929534218</v>
       </c>
       <c r="N26">
-        <v>4.35184081973073</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
@@ -2403,19 +2406,19 @@
         <v>5525994</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2435,7 +2438,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0472527142157606</v>
+        <v>0.282719053431976</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2447,25 +2450,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7.11</v>
+        <v>7.58</v>
       </c>
       <c r="K27">
-        <v>0.491682692307692</v>
+        <v>0.100343406593408</v>
       </c>
       <c r="L27">
-        <v>0.0002134307358486</v>
+        <v>-0.13036501004157</v>
       </c>
       <c r="M27">
-        <v>1.54681493382257</v>
+        <v>0.491043459382301</v>
       </c>
       <c r="N27">
-        <v>6.91536838688738</v>
+        <v>1.32379164371251</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q27">
         <v>1819188</v>
@@ -2474,19 +2477,19 @@
         <v>5525994</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2506,37 +2509,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.472540510645077</v>
+        <v>0.423629322172254</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.801587301587302</v>
+        <v>0.786885245901639</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4.375</v>
+        <v>4.2</v>
       </c>
       <c r="K28">
-        <v>0.0061484303912647</v>
+        <v>0.0086234612322391</v>
       </c>
       <c r="L28">
-        <v>-0.12965298238972</v>
+        <v>-0.127089723028419</v>
       </c>
       <c r="M28">
-        <v>0.18752930824695</v>
+        <v>0.189367033738125</v>
       </c>
       <c r="N28">
-        <v>0.140535551800338</v>
+        <v>0.205320505529502</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1819188</v>
@@ -2545,19 +2548,19 @@
         <v>5525994</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,40 +2577,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>1.52935805529664E-05</v>
+        <v>4.21835315012054E-07</v>
       </c>
       <c r="G29">
-        <v>0.0266666666666667</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="H29">
-        <v>0.613333333333333</v>
+        <v>0.646258503401361</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="K29">
-        <v>-0.0565072202992976</v>
+        <v>-0.07567884405670661</v>
       </c>
       <c r="L29">
-        <v>-0.0882794147320947</v>
+        <v>-0.101367348290624</v>
       </c>
       <c r="M29">
-        <v>-0.0329707058751547</v>
+        <v>-0.0458045860387607</v>
       </c>
       <c r="N29">
-        <v>-6.42127503401109</v>
+        <v>-8.90339341843608</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q29">
         <v>1819188</v>
@@ -2616,19 +2619,19 @@
         <v>5525994</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2648,7 +2651,7 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.187972691989085</v>
+        <v>0.728919957086696</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2660,25 +2663,25 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.335</v>
+        <v>10.315</v>
       </c>
       <c r="K30">
-        <v>-0.0159934318555008</v>
+        <v>0.008081898336546101</v>
       </c>
       <c r="L30">
-        <v>-0.0433131945398244</v>
+        <v>-0.0185166030917844</v>
       </c>
       <c r="M30">
-        <v>0.0096897864601917</v>
+        <v>0.0288135885481162</v>
       </c>
       <c r="N30">
-        <v>-0.154750187281092</v>
+        <v>0.07835092909884731</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q30">
         <v>1819188</v>
@@ -2687,19 +2690,19 @@
         <v>5525994</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2719,37 +2722,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.924259089704605</v>
+        <v>0.951053555338598</v>
       </c>
       <c r="G31">
-        <v>0.106741573033708</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="H31">
-        <v>0.174157303370787</v>
+        <v>0.162921348314607</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K31">
-        <v>-0.0001743648471094</v>
+        <v>-0.0001816487761594</v>
       </c>
       <c r="L31">
-        <v>-0.0004431301182893</v>
+        <v>-0.0004452990401453</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-1.24546319363866</v>
+        <v>-1.39729827814967</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q31">
         <v>1819188</v>
@@ -2758,19 +2761,19 @@
         <v>5525994</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2790,37 +2793,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.317114088808371</v>
+        <v>0.342371157850356</v>
       </c>
       <c r="G32">
         <v>0.0056497175141242</v>
       </c>
       <c r="H32">
-        <v>0.717514124293785</v>
+        <v>0.734463276836158</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K32">
-        <v>1.5599009869387</v>
+        <v>1.23093689045229</v>
       </c>
       <c r="L32">
-        <v>-4.19948063659357</v>
+        <v>-3.95901468931172</v>
       </c>
       <c r="M32">
-        <v>8.733407631934771</v>
+        <v>7.76953592115724</v>
       </c>
       <c r="N32">
-        <v>0.768424131496898</v>
+        <v>0.6312496874114329</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1819188</v>
@@ -2829,19 +2832,19 @@
         <v>5525994</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.99965403467141</v>
+        <v>0.999571891781783</v>
       </c>
       <c r="G33">
-        <v>0.645348837209302</v>
+        <v>0.656976744186046</v>
       </c>
       <c r="H33">
-        <v>0.366279069767442</v>
+        <v>0.354651162790698</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2891,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1819188</v>
@@ -2900,19 +2903,19 @@
         <v>5525994</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,16 +2932,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.864988352673788</v>
+        <v>0.985026782889125</v>
       </c>
       <c r="G34">
-        <v>0.208333333333333</v>
+        <v>0.224719101123595</v>
       </c>
       <c r="H34">
-        <v>0.119047619047619</v>
+        <v>0.112359550561798</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.0001248291182501</v>
+        <v>-0.0001664388243335</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q34">
         <v>1819188</v>
@@ -2971,19 +2974,19 @@
         <v>5525994</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3003,37 +3006,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.677508608678098</v>
+        <v>0.965087065814869</v>
       </c>
       <c r="G35">
-        <v>0.0714285714285714</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="H35">
-        <v>0.869047619047619</v>
+        <v>0.870786516853933</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.435</v>
+        <v>0.406</v>
       </c>
       <c r="K35">
-        <v>-0.0007961852861035</v>
+        <v>-0.0043540340753892</v>
       </c>
       <c r="L35">
-        <v>-0.0075467410950344</v>
+        <v>-0.0112680610607277</v>
       </c>
       <c r="M35">
-        <v>0.0025749539651258</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-0.183031100253688</v>
+        <v>-1.07242218605646</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>1819188</v>
@@ -3042,19 +3045,19 @@
         <v>5525994</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,37 +3077,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.984431602990965</v>
+        <v>0.9638121569864671</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.539325842696629</v>
+        <v>0.528089887640449</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.66</v>
+        <v>7.71</v>
       </c>
       <c r="K36">
-        <v>0.0125731497418245</v>
+        <v>0.009915167967424501</v>
       </c>
       <c r="L36">
-        <v>0.0029913659199606</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.0213382527147555</v>
+        <v>0.018545166982756</v>
       </c>
       <c r="N36">
-        <v>0.16414033605515</v>
+        <v>0.128601400355701</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q36">
         <v>1819188</v>
@@ -3113,16 +3116,16 @@
         <v>5525994</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3142,37 +3145,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.993515481540977</v>
+        <v>0.996562639969156</v>
       </c>
       <c r="G37">
         <v>0.0224719101123595</v>
       </c>
       <c r="H37">
-        <v>0.898876404494382</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37">
-        <v>0.4605</v>
+        <v>0.45485</v>
       </c>
       <c r="K37">
-        <v>-0.0088889027180938</v>
+        <v>-0.008388818456134</v>
       </c>
       <c r="L37">
-        <v>-0.0164374726187976</v>
+        <v>-0.0145105033906549</v>
       </c>
       <c r="M37">
-        <v>-0.0023264331210191</v>
+        <v>-0.0025263299595932</v>
       </c>
       <c r="N37">
-        <v>-1.93027203433091</v>
+        <v>-1.84430437641729</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1819188</v>
@@ -3181,19 +3184,19 @@
         <v>5525994</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,37 +3216,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.8774872989572839</v>
+        <v>0.842015778018869</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.657303370786517</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.6905</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K38">
-        <v>-0.0049931647300068</v>
+        <v>-0.0040763747046337</v>
       </c>
       <c r="L38">
-        <v>-0.0122617269854901</v>
+        <v>-0.0101138217169083</v>
       </c>
       <c r="M38">
-        <v>0.0013919610001043</v>
+        <v>0.0018909643219985</v>
       </c>
       <c r="N38">
-        <v>-0.723123060102365</v>
+        <v>-0.590778942700543</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1819188</v>
@@ -3252,19 +3255,19 @@
         <v>5525994</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3284,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.168692004135395</v>
+        <v>0.402390094775231</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3296,25 +3299,25 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.0345</v>
+        <v>0.031</v>
       </c>
       <c r="K39">
-        <v>0.0003983097055616</v>
+        <v>4.54517172722748E-05</v>
       </c>
       <c r="L39">
-        <v>-0.0002851911879892</v>
+        <v>-0.0004451478065826</v>
       </c>
       <c r="M39">
-        <v>0.001003434065934</v>
+        <v>0.0007410358674508</v>
       </c>
       <c r="N39">
-        <v>1.15452088568584</v>
+        <v>0.14661844281379</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1819188</v>
@@ -3323,19 +3326,19 @@
         <v>5525994</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,37 +3358,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.275930413262597</v>
+        <v>0.347598501083569</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.938202247191011</v>
+        <v>0.943820224719101</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6.785</v>
+        <v>6.135</v>
       </c>
       <c r="K40">
-        <v>0.06326807786698189</v>
+        <v>0.0252066694616218</v>
       </c>
       <c r="L40">
-        <v>-0.09818559636928929</v>
+        <v>-0.0833233851173073</v>
       </c>
       <c r="M40">
-        <v>0.260632398250171</v>
+        <v>0.226061589686431</v>
       </c>
       <c r="N40">
-        <v>0.932469828548002</v>
+        <v>0.410866657891145</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1819188</v>
@@ -3394,19 +3397,19 @@
         <v>5525994</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3426,37 +3429,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.000162193186328</v>
+        <v>6.08324911880453E-05</v>
       </c>
       <c r="G41">
-        <v>0.0449438202247191</v>
+        <v>0.0437158469945355</v>
       </c>
       <c r="H41">
-        <v>0.5730337078651681</v>
+        <v>0.573770491803279</v>
       </c>
       <c r="I41">
         <v>3</v>
       </c>
       <c r="J41">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="K41">
-        <v>-0.03330547112462</v>
+        <v>-0.0332347588717016</v>
       </c>
       <c r="L41">
-        <v>-0.0524776209586316</v>
+        <v>-0.0519192531696237</v>
       </c>
       <c r="M41">
-        <v>-0.0175754544253408</v>
+        <v>-0.0179719563364072</v>
       </c>
       <c r="N41">
-        <v>-3.70060790273556</v>
+        <v>-3.86450684554669</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q41">
         <v>1819188</v>
@@ -3465,19 +3468,19 @@
         <v>5525994</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3494,40 +3497,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.848272260864413</v>
+        <v>0.956416475995931</v>
       </c>
       <c r="G42">
-        <v>0.116504854368932</v>
+        <v>0.114678899082569</v>
       </c>
       <c r="H42">
-        <v>0.160194174757282</v>
+        <v>0.151376146788991</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.0001249573673442</v>
       </c>
       <c r="L42">
-        <v>-0.0002860845792811</v>
+        <v>-0.0003316631029087</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.961210518032797</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1819188</v>
@@ -3536,19 +3539,19 @@
         <v>5525994</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3568,37 +3571,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.444100504262038</v>
+        <v>0.687202847122889</v>
       </c>
       <c r="G43">
-        <v>0.0046082949308755</v>
+        <v>0.0045454545454545</v>
       </c>
       <c r="H43">
-        <v>0.67741935483871</v>
+        <v>0.722727272727273</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K43">
-        <v>0.242547298458339</v>
+        <v>-1.05680821837737</v>
       </c>
       <c r="L43">
-        <v>-3.98663238161188</v>
+        <v>-4.81546384521205</v>
       </c>
       <c r="M43">
-        <v>5.50278253216778</v>
+        <v>3.85908075181708</v>
       </c>
       <c r="N43">
-        <v>0.12127364922917</v>
+        <v>-0.531059406219783</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q43">
         <v>1819188</v>
@@ -3607,19 +3610,19 @@
         <v>5525994</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3636,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>0.985645462131279</v>
+        <v>0.987566177983799</v>
       </c>
       <c r="G44">
-        <v>0.66</v>
+        <v>0.665094339622642</v>
       </c>
       <c r="H44">
-        <v>0.355</v>
+        <v>0.349056603773585</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -3669,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q44">
         <v>1819188</v>
@@ -3678,19 +3681,19 @@
         <v>5525994</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3710,31 +3713,31 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.910037209663391</v>
+        <v>0.993795837456007</v>
       </c>
       <c r="G45">
-        <v>0.06951871657754009</v>
+        <v>0.07035175879396981</v>
       </c>
       <c r="H45">
-        <v>0.866310160427808</v>
+        <v>0.869346733668342</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>0.442</v>
+        <v>0.43</v>
       </c>
       <c r="K45">
-        <v>-0.0032852140915092</v>
+        <v>-0.0059998248345659</v>
       </c>
       <c r="L45">
-        <v>-0.009174142178738499</v>
+        <v>-0.0110206138456451</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>-0.0016910362472941</v>
       </c>
       <c r="N45">
-        <v>-0.743261106676298</v>
+        <v>-1.39530810106186</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
@@ -3749,19 +3752,19 @@
         <v>5525994</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3781,37 +3784,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.974710445594499</v>
+        <v>0.999142559430791</v>
       </c>
       <c r="G46">
-        <v>0.0194174757281553</v>
+        <v>0.018348623853211</v>
       </c>
       <c r="H46">
-        <v>0.888349514563107</v>
+        <v>0.885321100917431</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
-        <v>0.46</v>
+        <v>0.45485</v>
       </c>
       <c r="K46">
-        <v>-0.0053004626413276</v>
+        <v>-0.0075279735112605</v>
       </c>
       <c r="L46">
-        <v>-0.010408034295415</v>
+        <v>-0.012018190402301</v>
       </c>
       <c r="M46">
-        <v>-0.0004942165237853</v>
+        <v>-0.0031737035471218</v>
       </c>
       <c r="N46">
-        <v>-1.15227448724513</v>
+        <v>-1.65504529213159</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>1819188</v>
@@ -3820,19 +3823,19 @@
         <v>5525994</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3852,37 +3855,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.291726476602183</v>
+        <v>0.461692741248803</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.930232558139535</v>
+        <v>0.917808219178082</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>7.46</v>
+        <v>6.53</v>
       </c>
       <c r="K47">
-        <v>0.0249606971785038</v>
+        <v>0.0027352720918622</v>
       </c>
       <c r="L47">
-        <v>-0.0664369063277868</v>
+        <v>-0.074565687765437</v>
       </c>
       <c r="M47">
-        <v>0.173783349252465</v>
+        <v>0.106146020781557</v>
       </c>
       <c r="N47">
-        <v>0.334593795958496</v>
+        <v>0.0418877808860985</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q47">
         <v>1819188</v>
@@ -3891,19 +3894,19 @@
         <v>5525994</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3923,7 +3926,7 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.59675202974633</v>
+        <v>0.5</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3935,25 +3938,25 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="K48">
-        <v>0.0237853363713051</v>
+        <v>0.0014042953746595</v>
       </c>
       <c r="L48">
-        <v>-0.0432002827154555</v>
+        <v>-0.158194613931882</v>
       </c>
       <c r="M48">
         <v>0.0624731000368559</v>
       </c>
       <c r="N48">
-        <v>6.09880419777055</v>
+        <v>0.379539290448526</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q48">
         <v>1819188</v>
@@ -3962,16 +3965,16 @@
         <v>5525994</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3991,7 +3994,7 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.768783636774762</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4006,22 +4009,22 @@
         <v>93</v>
       </c>
       <c r="K49">
-        <v>1.58858857579853</v>
+        <v>-3.54682594644506</v>
       </c>
       <c r="L49">
-        <v>-5.08135947465903</v>
+        <v>-11.3044608200572</v>
       </c>
       <c r="M49">
-        <v>6.21050994241852</v>
+        <v>1.34532005997383</v>
       </c>
       <c r="N49">
-        <v>1.70815975892315</v>
+        <v>-3.8137913402635</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q49">
         <v>1819188</v>
@@ -4030,16 +4033,16 @@
         <v>5525994</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4059,7 +4062,7 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.768783636774762</v>
+        <v>0.5</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4071,25 +4074,25 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>6.42</v>
+        <v>5.6</v>
       </c>
       <c r="K50">
-        <v>0.227508715885452</v>
+        <v>-0.126608129309416</v>
       </c>
       <c r="L50">
-        <v>-1.50157032881883</v>
+        <v>-2.43563225874175</v>
       </c>
       <c r="M50">
         <v>1.20310522699524</v>
       </c>
       <c r="N50">
-        <v>3.54374946862074</v>
+        <v>-2.26085945195386</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q50">
         <v>1819188</v>
@@ -4098,16 +4101,16 @@
         <v>5525994</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4127,7 +4130,7 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.639742606431872</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4142,22 +4145,22 @@
         <v>0.38</v>
       </c>
       <c r="K51">
-        <v>0.005189344262295</v>
+        <v>-0.0154033795493934</v>
       </c>
       <c r="L51">
-        <v>-0.018494208765157</v>
+        <v>-0.0377522578112749</v>
       </c>
       <c r="M51">
-        <v>0.0224773920786469</v>
+        <v>0.0134006985918863</v>
       </c>
       <c r="N51">
-        <v>1.36561691113029</v>
+        <v>-4.0535209340509</v>
       </c>
       <c r="O51" t="s">
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q51">
         <v>1819188</v>
@@ -4166,16 +4169,16 @@
         <v>5525994</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4195,7 +4198,7 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.878482519852739</v>
+        <v>0.5357779792497041</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4210,22 +4213,22 @@
         <v>88.16500000000001</v>
       </c>
       <c r="K52">
-        <v>0.863837002840909</v>
+        <v>0.285017557549746</v>
       </c>
       <c r="L52">
-        <v>-0.4694535162638</v>
+        <v>-2.19776900093332</v>
       </c>
       <c r="M52">
-        <v>1.67654882176043</v>
+        <v>1.58153356935561</v>
       </c>
       <c r="N52">
-        <v>0.979795840572686</v>
+        <v>0.323277442919238</v>
       </c>
       <c r="O52" t="s">
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q52">
         <v>1819188</v>
@@ -4234,16 +4237,16 @@
         <v>5525994</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4263,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.963180864939849</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4278,22 +4281,22 @@
         <v>5.525</v>
       </c>
       <c r="K53">
-        <v>0.306393874365977</v>
+        <v>0.211684670781893</v>
       </c>
       <c r="L53">
-        <v>0.0177819962238194</v>
+        <v>-0.296993799674518</v>
       </c>
       <c r="M53">
-        <v>0.550983458112457</v>
+        <v>0.527202676086809</v>
       </c>
       <c r="N53">
-        <v>5.54559048626203</v>
+        <v>3.83139675623336</v>
       </c>
       <c r="O53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q53">
         <v>1819188</v>
@@ -4302,16 +4305,16 @@
         <v>5525994</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
